--- a/1_Crawler/DA/Amazon_Mouse_Rank.xlsx
+++ b/1_Crawler/DA/Amazon_Mouse_Rank.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="17235" windowHeight="10080" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="17235" windowHeight="10080" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="US-2-26" sheetId="1" r:id="rId1"/>
     <sheet name="CN-2-26" sheetId="2" r:id="rId2"/>
     <sheet name="Arab-2-26" sheetId="3" r:id="rId3"/>
     <sheet name="Brazil-2-26" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Brazil-3-4" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="882">
   <si>
     <t>排名</t>
   </si>
@@ -2369,206 +2369,311 @@
     <t>R$89,21</t>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>時間</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>行程安排</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>地點</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃早餐</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃午餐</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>三峽市區</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>13:00
-~15:00</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>三峽皇后鎮</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>出發熊空看櫻花</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>三峽熊空</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>17:00
-~22:30</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>三峽市區or皇后鎮吃早餐</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>爬爬鳶山</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>三峽鳶山</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>解散</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>路程</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>麥當勞
--新莊中平店</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>三峽老街</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>約40分鐘</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>約15分鐘</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>約20分鐘</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>約10分鐘</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>朝翔、冠樺、建志、慕恩</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>博崴、冠廷、定烽、悅祈</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>子超、子超女友</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>放風時段</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-晚餐(勝鴻哥外帶披薩)、
-玩桌遊、洗澡</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>放風時段</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-紮營、營區晃晃
-、打球、吃零食</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>午餐桶窯雞</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>營帳分配(10人)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>不住宿(2人)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿瑋、
-勝鴻、
-雅萱</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>Multilaser MO251 - Mouse sem Fio 2.4 Ghz 1200 DPI, Preto, USB</t>
+  </si>
+  <si>
+    <t>R$16,99</t>
+  </si>
+  <si>
+    <t>R$56,96</t>
+  </si>
+  <si>
+    <t>R$66,80</t>
+  </si>
+  <si>
+    <t>R$22,99</t>
+  </si>
+  <si>
+    <t>R$49,60</t>
+  </si>
+  <si>
+    <t>R$ 26,29</t>
+  </si>
+  <si>
+    <t>R$358,90</t>
+  </si>
+  <si>
+    <t>R$136,60</t>
+  </si>
+  <si>
+    <t>R$321,56</t>
+  </si>
+  <si>
+    <t>Mouse Multilaser Classic Preto Ps2 Multilaser MO030</t>
+  </si>
+  <si>
+    <t>R$15,90</t>
+  </si>
+  <si>
+    <t>4,2 de 5 estrelas</t>
+  </si>
+  <si>
+    <t>R$228,41</t>
+  </si>
+  <si>
+    <t>R$ 42,40</t>
+  </si>
+  <si>
+    <t>Mouse Sem Fio Microsoft, Wireless Mobile 1850, U7Z-00018 - Azul Ciano</t>
+  </si>
+  <si>
+    <t>R$79,90</t>
+  </si>
+  <si>
+    <t>R$68,72</t>
+  </si>
+  <si>
+    <t>R$189,00</t>
+  </si>
+  <si>
+    <t>Mouse Multilaser Gamer Profissional Warrior 7 Botões 3200 Dpi Preto Usb - Mo207</t>
+  </si>
+  <si>
+    <t>R$92,40</t>
+  </si>
+  <si>
+    <t>Mouse Logitech M350 Pebble Sem Fio E Bluetooth Óptico Branco</t>
+  </si>
+  <si>
+    <t>R$98,90</t>
+  </si>
+  <si>
+    <t>R$44,99</t>
+  </si>
+  <si>
+    <t>R$228,24</t>
+  </si>
+  <si>
+    <t>Mouse Sem Fio Multilaser 2.4 Ghz Comfort 6 Botões Vermelho Metalizado E Preto Usb - MO239</t>
+  </si>
+  <si>
+    <t>R$ 65,80</t>
+  </si>
+  <si>
+    <t>R$457,60</t>
+  </si>
+  <si>
+    <t>R$80,67</t>
+  </si>
+  <si>
+    <t>Mouse Sem Fio Multilaser 2.4Ghz Usb Preto/Cinza - MO257</t>
+  </si>
+  <si>
+    <t>R$35,11</t>
+  </si>
+  <si>
+    <t>R$33,78</t>
+  </si>
+  <si>
+    <t>Mouse Gamer Chrome Warrior USB 1600Dpi Multilaser - MO228</t>
+  </si>
+  <si>
+    <t>R$53,90</t>
+  </si>
+  <si>
+    <t>Mouse Gamer Fatality 3500 Dpi Dazz, Outros acessórios para notebooks</t>
+  </si>
+  <si>
+    <t>R$40,85</t>
+  </si>
+  <si>
+    <t>Mouse Multilaser Retrátil Mini Fit Ice Piano Usb - MO155</t>
+  </si>
+  <si>
+    <t>R$21,10</t>
+  </si>
+  <si>
+    <t>R$66,99</t>
+  </si>
+  <si>
+    <t>Mouse Gamer, Razer, Basilisk 16000 Dpi, RZ.MO.BA.01.RT, Preto</t>
+  </si>
+  <si>
+    <t>R$569,05</t>
+  </si>
+  <si>
+    <t>Mini Mouse Multilaser Usb Mini Retrátil Preto - MO159</t>
+  </si>
+  <si>
+    <t>R$18,91</t>
+  </si>
+  <si>
+    <t>Mouse sem Fio Bluetooth Compacto M535 com Pilha Inclusa, Logitech, Mouses, Azul</t>
+  </si>
+  <si>
+    <t>R$ 149,89</t>
+  </si>
+  <si>
+    <t>R$ 6,99</t>
+  </si>
+  <si>
+    <t>Mouse Theron Infravermelho 4000DPI MO-TRN006DTM THERMALTAKE</t>
+  </si>
+  <si>
+    <t>R$198,87</t>
+  </si>
+  <si>
+    <t>R$211,65</t>
+  </si>
+  <si>
+    <t>R$78,89</t>
+  </si>
+  <si>
+    <t>Mouse 800 Dpi - Usb, Maxprint, Mouses</t>
+  </si>
+  <si>
+    <t>R$18,71</t>
+  </si>
+  <si>
+    <t>Mouse Gamer Griffin com LED RGB M607, Redragon, Mouses, Preto</t>
+  </si>
+  <si>
+    <t>R$95,10</t>
+  </si>
+  <si>
+    <t>Fortrek OM-103BK Mouse USB 1600dpi, Preto</t>
+  </si>
+  <si>
+    <t>R$16,93</t>
+  </si>
+  <si>
+    <t>Mouse Pad Gamer Logitech G840 XL - 943-000117</t>
+  </si>
+  <si>
+    <t>R$194,90</t>
+  </si>
+  <si>
+    <t>Mouse sem Fio Recarregável Power One 600 DPI Receptor USB, Vinik</t>
+  </si>
+  <si>
+    <t>Mouse sem Fio M185 com Nanoreceptor USB e Pilha Inclusa, Logitech, Mouses, Cinza</t>
+  </si>
+  <si>
+    <t>R$58,80</t>
+  </si>
+  <si>
+    <t>Mouse Pad Gamer ZOWIE P-SR Pequeno, Control 355x315mm, ZOWIE, Acessórios para Computador, Preto</t>
+  </si>
+  <si>
+    <t>R$198,99</t>
+  </si>
+  <si>
+    <t>Mini Mouse Logitech M187 Wireless Preto - 910-005459</t>
+  </si>
+  <si>
+    <t>R$27,42</t>
+  </si>
+  <si>
+    <t>Mouse, OEX, Vermelho</t>
+  </si>
+  <si>
+    <t>R$114,89</t>
+  </si>
+  <si>
+    <t>Razer Mouse Abyssus Essential</t>
+  </si>
+  <si>
+    <t>R$233,01</t>
+  </si>
+  <si>
+    <t>Mouse Sem Fio Mobile Bluetooth Azul Microsoft - PN700028</t>
+  </si>
+  <si>
+    <t>R$177,35</t>
+  </si>
+  <si>
+    <t>Mouse, Razer, Abyssus Elite D. Va, Preto</t>
+  </si>
+  <si>
+    <t>R$360,05</t>
+  </si>
+  <si>
+    <t>R$47,60</t>
+  </si>
+  <si>
+    <t>Mouse sem Fio X3000, Hp, Mouses</t>
+  </si>
+  <si>
+    <t>R$65,60</t>
+  </si>
+  <si>
+    <t>R$44,84</t>
+  </si>
+  <si>
+    <t>Mouse sem Fio Rc/Nano M-W20Rd, C3Tech, Mouses</t>
+  </si>
+  <si>
+    <t>3,3 de 5 estrelas</t>
+  </si>
+  <si>
+    <t>R$30,72</t>
+  </si>
+  <si>
+    <t>R$67,90</t>
+  </si>
+  <si>
+    <t>Mouse sem Fio, Hp, Mouses</t>
+  </si>
+  <si>
+    <t>R$74,00</t>
+  </si>
+  <si>
+    <t>Caneta Mouse Sem Fio Wireless Usb 2.64ghz Notebook Pc Opitcal</t>
+  </si>
+  <si>
+    <t>R$ 85,00</t>
+  </si>
+  <si>
+    <t>R$43,49</t>
+  </si>
+  <si>
+    <t>Mouse Multilaser Comfort 6 Botões Usb Preto - MO241</t>
+  </si>
+  <si>
+    <t>R$36,01</t>
+  </si>
+  <si>
+    <t>Mini Mouse Logitech M187 Wireless Amarelo - 910-005365</t>
+  </si>
+  <si>
+    <t>Mouse Xiaomi Original Sem Fio/bluetooth 4.0/2.4g Prata</t>
+  </si>
+  <si>
+    <t>R$149,00</t>
+  </si>
+  <si>
+    <t>Mouse Multilaser Retrátil Mini Piano Red Usb - MO163</t>
+  </si>
+  <si>
+    <t>R$20,81</t>
+  </si>
+  <si>
+    <t>R$ 62,95</t>
+  </si>
+  <si>
+    <t>R$52,64</t>
+  </si>
+  <si>
+    <t>Mouse Gamer Pichau P301 Rgb 4000dpi Preto, Pgm-p301-rgb</t>
+  </si>
+  <si>
+    <t>R$76,27</t>
+  </si>
+  <si>
+    <t>Mouse Multilaser Óptico Retrátil 1200Dpi Usb Azul - MO235</t>
+  </si>
+  <si>
+    <t>R$23,65</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="178" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2729,31 +2834,8 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2933,20 +3015,8 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -3059,58 +3129,6 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -3242,7 +3260,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3269,51 +3287,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="19" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="19" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="21" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -8674,13 +8647,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="64.5" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10360,217 +10334,1703 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="9" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="9" customWidth="1"/>
-    <col min="3" max="3" width="25.25" style="10" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="10" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="10"/>
+    <col min="2" max="2" width="87.375" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>783</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C2" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="D2" s="8">
+        <v>908</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>784</v>
       </c>
-      <c r="C1" s="11" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D3" s="8">
+        <v>713</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2.056</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="D5" s="8">
+        <v>606</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>785</v>
       </c>
-      <c r="D1" s="11" t="s">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="D6" s="8">
+        <v>573</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1.865</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D8" s="8">
+        <v>101</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>786</v>
       </c>
-      <c r="E1" s="11" t="s">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D9" s="8">
+        <v>291</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="D10" s="8">
+        <v>171</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2.351</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D12" s="8">
+        <v>8</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="D13" s="8">
+        <v>53</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="D14" s="8">
+        <v>861</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D15" s="8">
+        <v>498</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="D16" s="8">
+        <v>53</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D17" s="8">
+        <v>108</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1.68</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="D19" s="8">
+        <v>3.7189999999999999</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D20" s="8">
+        <v>29</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1.659</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="D23" s="8">
+        <v>13</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="D24" s="8">
+        <v>53</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D25" s="8">
+        <v>11</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="D26" s="8">
+        <v>26</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D27" s="8">
+        <v>31</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1.865</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31.5">
-      <c r="A2" s="20">
-        <v>43889</v>
-      </c>
-      <c r="B2" s="13">
-        <v>0.375</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>787</v>
-      </c>
-      <c r="D2" s="15" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1.865</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>800</v>
       </c>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="20"/>
-      <c r="B3" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>788</v>
-      </c>
-      <c r="D3" s="14" t="s">
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="D30" s="8">
+        <v>27</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>801</v>
       </c>
-      <c r="E3" s="16" t="s">
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="48">
-      <c r="A4" s="20"/>
-      <c r="B4" s="17" t="s">
-        <v>790</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="C31" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D31" s="8">
+        <v>4</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D32" s="8">
+        <v>39</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D33" s="8">
+        <v>181</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="D34" s="8">
+        <v>189</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D35" s="8">
+        <v>466</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1.865</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="D37" s="8">
+        <v>10</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D38" s="8">
+        <v>56</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D40" s="8">
+        <v>8</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="D41" s="8">
+        <v>170</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="D42" s="8">
+        <v>10</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D43" s="8">
+        <v>2</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>812</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>813</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>791</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="20"/>
-      <c r="B5" s="13">
-        <v>0.625</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>792</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="48">
-      <c r="A6" s="20"/>
-      <c r="B6" s="18" t="s">
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D45" s="8">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="D46" s="8">
+        <v>9</v>
+      </c>
+      <c r="E46" s="8" t="s">
         <v>794</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>812</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>791</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="20">
-        <v>43890</v>
-      </c>
-      <c r="B7" s="13">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>795</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>791</v>
-      </c>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="20"/>
-      <c r="B8" s="13">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>796</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>797</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="20"/>
-      <c r="B9" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="C9" s="14" t="s">
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="D47" s="8">
+        <v>1.149</v>
+      </c>
+      <c r="E47" s="8" t="s">
         <v>814</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>789</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="20"/>
-      <c r="B10" s="13">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>798</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="13" spans="1:5" ht="21.75" customHeight="1">
-      <c r="B13" s="12" t="s">
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D48" s="8">
+        <v>73</v>
+      </c>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D49" s="8">
+        <v>16</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D50" s="8">
+        <v>27</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>815</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11" t="s">
+      <c r="C51" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D51" s="8">
+        <v>1</v>
+      </c>
+      <c r="E51" s="8" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.75" customHeight="1">
-      <c r="B14" s="19" t="s">
-        <v>806</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>807</v>
-      </c>
-      <c r="D14" s="21" t="s">
+    <row r="52" spans="1:5">
+      <c r="A52" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="18.75" customHeight="1">
-      <c r="B15" s="19" t="s">
-        <v>808</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>809</v>
-      </c>
-      <c r="D15" s="22"/>
-    </row>
-    <row r="16" spans="1:5" ht="18.75" customHeight="1">
-      <c r="B16" s="19" t="s">
-        <v>810</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>811</v>
-      </c>
-      <c r="D16" s="23"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="D53" s="8">
+        <v>3</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="D54" s="8">
+        <v>95</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D55" s="8">
+        <v>33</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>824</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D56" s="8">
+        <v>5</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="D57" s="8">
+        <v>12.166</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="D58" s="8">
+        <v>1.05</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D59" s="8">
+        <v>10</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="D60" s="8">
+        <v>6</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="D62" s="8">
+        <v>48</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="D63" s="8">
+        <v>7</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="D64" s="8">
+        <v>14</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D66" s="8">
+        <v>1.865</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D67" s="8">
+        <v>9</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>837</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D68" s="8">
+        <v>3</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="D69" s="8">
+        <v>105</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="D71" s="8">
+        <v>60</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D72" s="8">
+        <v>116</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D73" s="8">
+        <v>1</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="D74" s="8">
+        <v>2.95</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="D75" s="8">
+        <v>108</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="D76" s="8">
+        <v>9</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D77" s="8">
+        <v>159</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>848</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D80" s="8">
+        <v>48</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>854</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="D81" s="8">
+        <v>18</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="D82" s="8">
+        <v>13</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D83" s="8">
+        <v>1</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D84" s="8">
+        <v>4</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="D85" s="8">
+        <v>5</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="D86" s="8">
+        <v>57</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>864</v>
+      </c>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="D89" s="8">
+        <v>2</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="D90" s="8">
+        <v>18</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D91" s="8">
+        <v>194</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="D92" s="8">
+        <v>3</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D93" s="8">
+        <v>93</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="D94" s="8">
+        <v>12</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>871</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D95" s="8">
+        <v>5</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>872</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="D96" s="8">
+        <v>152</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D97" s="8">
+        <v>2</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D98" s="8">
+        <v>105</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D99" s="8">
+        <v>42</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D100" s="8">
+        <v>1</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>880</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="D101" s="8">
+        <v>20</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>881</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="B13:C13"/>
-  </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/1_Crawler/DA/Amazon_Mouse_Rank.xlsx
+++ b/1_Crawler/DA/Amazon_Mouse_Rank.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="17235" windowHeight="10080" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="17235" windowHeight="10080" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="US-2-26" sheetId="1" r:id="rId1"/>
     <sheet name="CN-2-26" sheetId="2" r:id="rId2"/>
     <sheet name="Arab-2-26" sheetId="3" r:id="rId3"/>
-    <sheet name="Brazil-2-26" sheetId="4" r:id="rId4"/>
-    <sheet name="Brazil-3-4" sheetId="6" r:id="rId5"/>
+    <sheet name="Brazil-3-4" sheetId="6" r:id="rId4"/>
+    <sheet name="Brazil-2-26" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632" uniqueCount="1178">
   <si>
     <t>排名</t>
   </si>
@@ -2664,6 +2664,894 @@
   </si>
   <si>
     <t>R$23,65</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>sem</t>
+  </si>
+  <si>
+    <t>Fio</t>
+  </si>
+  <si>
+    <t>Ghz</t>
+  </si>
+  <si>
+    <t>DPI</t>
+  </si>
+  <si>
+    <t>Preto</t>
+  </si>
+  <si>
+    <t>USB</t>
+  </si>
+  <si>
+    <t>Multilaser</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>MO251</t>
+  </si>
+  <si>
+    <t>Logitech</t>
+  </si>
+  <si>
+    <t>M170</t>
+  </si>
+  <si>
+    <t>Wireless</t>
+  </si>
+  <si>
+    <t>910-004940</t>
+  </si>
+  <si>
+    <t>Gamer,</t>
+  </si>
+  <si>
+    <t>Fortrek,</t>
+  </si>
+  <si>
+    <t>PRO</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>RGB,</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>WM126</t>
+  </si>
+  <si>
+    <t>Optical</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Com</t>
+  </si>
+  <si>
+    <t>Usb</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>P5800061</t>
+  </si>
+  <si>
+    <t>Sem</t>
+  </si>
+  <si>
+    <t>2.4Ghz</t>
+  </si>
+  <si>
+    <t>MO212</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Fio,</t>
+  </si>
+  <si>
+    <t>M90</t>
+  </si>
+  <si>
+    <t>910-004053</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>U7Z00008</t>
+  </si>
+  <si>
+    <t>M280</t>
+  </si>
+  <si>
+    <t>910-004284</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>2S</t>
+  </si>
+  <si>
+    <t>com</t>
+  </si>
+  <si>
+    <t>Tecnologia</t>
+  </si>
+  <si>
+    <t>FLOW</t>
+  </si>
+  <si>
+    <t>para</t>
+  </si>
+  <si>
+    <t>Controle</t>
+  </si>
+  <si>
+    <t>Multi-Computador</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Compartilhamento</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>Arquivos,</t>
+  </si>
+  <si>
+    <t>Conexão</t>
+  </si>
+  <si>
+    <t>por</t>
+  </si>
+  <si>
+    <t>Nanoreceptor</t>
+  </si>
+  <si>
+    <t>Unifying</t>
+  </si>
+  <si>
+    <t>ou</t>
+  </si>
+  <si>
+    <t>Bluetooth</t>
+  </si>
+  <si>
+    <t>Easy-Switch,</t>
+  </si>
+  <si>
+    <t>fio</t>
+  </si>
+  <si>
+    <t>Dell,</t>
+  </si>
+  <si>
+    <t>WM326,</t>
+  </si>
+  <si>
+    <t>Vermelho</t>
+  </si>
+  <si>
+    <t>910-004286</t>
+  </si>
+  <si>
+    <t>Gamer</t>
+  </si>
+  <si>
+    <t>G502</t>
+  </si>
+  <si>
+    <t>Hero</t>
+  </si>
+  <si>
+    <t>910-005550</t>
+  </si>
+  <si>
+    <t>Emborrachado</t>
+  </si>
+  <si>
+    <t>MO222</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>MO264</t>
+  </si>
+  <si>
+    <t>U7Z00038</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>HERO</t>
+  </si>
+  <si>
+    <t>910-005536</t>
+  </si>
+  <si>
+    <t>Mini</t>
+  </si>
+  <si>
+    <t>MO205</t>
+  </si>
+  <si>
+    <t>Anywhere</t>
+  </si>
+  <si>
+    <t>910-005132</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Rosa</t>
+  </si>
+  <si>
+    <t>MO214</t>
+  </si>
+  <si>
+    <t>Claro</t>
+  </si>
+  <si>
+    <t>U7Z00028U7Z00028</t>
+  </si>
+  <si>
+    <t>Sculpt</t>
+  </si>
+  <si>
+    <t>Comfort</t>
+  </si>
+  <si>
+    <t>H3S00009</t>
+  </si>
+  <si>
+    <t>M720</t>
+  </si>
+  <si>
+    <t>Triathlon</t>
+  </si>
+  <si>
+    <t>910-004790</t>
+  </si>
+  <si>
+    <t>Branco</t>
+  </si>
+  <si>
+    <t>MO216</t>
+  </si>
+  <si>
+    <t>Colors</t>
+  </si>
+  <si>
+    <t>Dpi,</t>
+  </si>
+  <si>
+    <t>Maxprint,</t>
+  </si>
+  <si>
+    <t>Mouses</t>
+  </si>
+  <si>
+    <t>Legacy</t>
+  </si>
+  <si>
+    <t>6400Dpi</t>
+  </si>
+  <si>
+    <t>Dazz,</t>
+  </si>
+  <si>
+    <t>Outros</t>
+  </si>
+  <si>
+    <t>acessórios</t>
+  </si>
+  <si>
+    <t>notebooks</t>
+  </si>
+  <si>
+    <t>Classic</t>
+  </si>
+  <si>
+    <t>MO007</t>
+  </si>
+  <si>
+    <t>910-004941</t>
+  </si>
+  <si>
+    <t>Ps2</t>
+  </si>
+  <si>
+    <t>MO031</t>
+  </si>
+  <si>
+    <t>Philips</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Spk9413/00</t>
+  </si>
+  <si>
+    <t>Rgb</t>
+  </si>
+  <si>
+    <t>M535</t>
+  </si>
+  <si>
+    <t>910-004432</t>
+  </si>
+  <si>
+    <t>Prata</t>
+  </si>
+  <si>
+    <t>910-005334</t>
+  </si>
+  <si>
+    <t>MO254</t>
+  </si>
+  <si>
+    <t>Craft,</t>
+  </si>
+  <si>
+    <t>1000,</t>
+  </si>
+  <si>
+    <t>HP,</t>
+  </si>
+  <si>
+    <t>Mouses,</t>
+  </si>
+  <si>
+    <t>M105</t>
+  </si>
+  <si>
+    <t>910-002958</t>
+  </si>
+  <si>
+    <t>M187</t>
+  </si>
+  <si>
+    <t>Coral</t>
+  </si>
+  <si>
+    <t>910-005362</t>
+  </si>
+  <si>
+    <t>M110</t>
+  </si>
+  <si>
+    <t>Cinza</t>
+  </si>
+  <si>
+    <t>910-005494</t>
+  </si>
+  <si>
+    <t>M185</t>
+  </si>
+  <si>
+    <t>Azul</t>
+  </si>
+  <si>
+    <t>910-003636</t>
+  </si>
+  <si>
+    <t>Ergonomic</t>
+  </si>
+  <si>
+    <t>L6V00009</t>
+  </si>
+  <si>
+    <t>X200</t>
+  </si>
+  <si>
+    <t>Oman,</t>
+  </si>
+  <si>
+    <t>Hp,</t>
+  </si>
+  <si>
+    <t>Kit</t>
+  </si>
+  <si>
+    <t>Jogo</t>
+  </si>
+  <si>
+    <t>Chaves</t>
+  </si>
+  <si>
+    <t>Peças</t>
+  </si>
+  <si>
+    <t>Fenda</t>
+  </si>
+  <si>
+    <t>Phillips</t>
+  </si>
+  <si>
+    <t>em</t>
+  </si>
+  <si>
+    <t>Aço,</t>
+  </si>
+  <si>
+    <t>Vinik,</t>
+  </si>
+  <si>
+    <t>Prata/Preto</t>
+  </si>
+  <si>
+    <t>Mecanico</t>
+  </si>
+  <si>
+    <t>Cyborg</t>
+  </si>
+  <si>
+    <t>Dpi</t>
+  </si>
+  <si>
+    <t>910-005647</t>
+  </si>
+  <si>
+    <t>G305</t>
+  </si>
+  <si>
+    <t>LIGHTSPEED</t>
+  </si>
+  <si>
+    <t>wireless</t>
+  </si>
+  <si>
+    <t>910-005281</t>
+  </si>
+  <si>
+    <t>Vertical</t>
+  </si>
+  <si>
+    <t>910-005447</t>
+  </si>
+  <si>
+    <t>Pro,</t>
+  </si>
+  <si>
+    <t>Bulk</t>
+  </si>
+  <si>
+    <t>MO265</t>
+  </si>
+  <si>
+    <t>M510</t>
+  </si>
+  <si>
+    <t>910-001822</t>
+  </si>
+  <si>
+    <t>Z3700</t>
+  </si>
+  <si>
+    <t>Az,</t>
+  </si>
+  <si>
+    <t>910-005492</t>
+  </si>
+  <si>
+    <t>Loch</t>
+  </si>
+  <si>
+    <t>Ness</t>
+  </si>
+  <si>
+    <t>GMF00380</t>
+  </si>
+  <si>
+    <t>G600</t>
+  </si>
+  <si>
+    <t>MMO</t>
+  </si>
+  <si>
+    <t>910-003879</t>
+  </si>
+  <si>
+    <t>ZOWIE</t>
+  </si>
+  <si>
+    <t>DIVINA</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Sensor</t>
+  </si>
+  <si>
+    <t>eSports</t>
+  </si>
+  <si>
+    <t>Boreal,</t>
+  </si>
+  <si>
+    <t>OEX,</t>
+  </si>
+  <si>
+    <t>MS319,</t>
+  </si>
+  <si>
+    <t>U7Z00062</t>
+  </si>
+  <si>
+    <t>910-004800</t>
+  </si>
+  <si>
+    <t>Recarregavel</t>
+  </si>
+  <si>
+    <t>Clique</t>
+  </si>
+  <si>
+    <t>Silencioso</t>
+  </si>
+  <si>
+    <t>Techzone</t>
+  </si>
+  <si>
+    <t>Preto/Azul,</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Mac</t>
+  </si>
+  <si>
+    <t>MLA02BE/A</t>
+  </si>
+  <si>
+    <t>910-004285</t>
+  </si>
+  <si>
+    <t>Blueeye,</t>
+  </si>
+  <si>
+    <t>Genius,</t>
+  </si>
+  <si>
+    <t>48596-22-0</t>
+  </si>
+  <si>
+    <t>EC-2</t>
+  </si>
+  <si>
+    <t>Óptico</t>
+  </si>
+  <si>
+    <t>Pequeno</t>
+  </si>
+  <si>
+    <t>3200DPI,</t>
+  </si>
+  <si>
+    <t>3360,</t>
+  </si>
+  <si>
+    <t>USB,</t>
+  </si>
+  <si>
+    <t>ideal</t>
+  </si>
+  <si>
+    <t>destros</t>
+  </si>
+  <si>
+    <t>jogos</t>
+  </si>
+  <si>
+    <t>FPS</t>
+  </si>
+  <si>
+    <t>E-sports,</t>
+  </si>
+  <si>
+    <t>ZOWIE,</t>
+  </si>
+  <si>
+    <t>Preto.</t>
+  </si>
+  <si>
+    <t>Ótico</t>
+  </si>
+  <si>
+    <t>Soft</t>
+  </si>
+  <si>
+    <t>Botões</t>
+  </si>
+  <si>
+    <t>MO237</t>
+  </si>
+  <si>
+    <t>910-005491</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Do,</t>
+  </si>
+  <si>
+    <t>910-003138</t>
+  </si>
+  <si>
+    <t>Z3700,</t>
+  </si>
+  <si>
+    <t>G403</t>
+  </si>
+  <si>
+    <t>910-005631</t>
+  </si>
+  <si>
+    <t>Centrophorus</t>
+  </si>
+  <si>
+    <t>M601-3,</t>
+  </si>
+  <si>
+    <t>Redragon,</t>
+  </si>
+  <si>
+    <t>MO223</t>
+  </si>
+  <si>
+    <t>910-005566</t>
+  </si>
+  <si>
+    <t>3600,</t>
+  </si>
+  <si>
+    <t>Bluetooth,</t>
+  </si>
+  <si>
+    <t>PN700008</t>
+  </si>
+  <si>
+    <t>Escuro</t>
+  </si>
+  <si>
+    <t>U7Z00018</t>
+  </si>
+  <si>
+    <t>910-005364</t>
+  </si>
+  <si>
+    <t>X900,</t>
+  </si>
+  <si>
+    <t>ARC,</t>
+  </si>
+  <si>
+    <t>Touch</t>
+  </si>
+  <si>
+    <t>Bluetrack</t>
+  </si>
+  <si>
+    <t>RVF00052</t>
+  </si>
+  <si>
+    <t>Nothosaur</t>
+  </si>
+  <si>
+    <t>M606,</t>
+  </si>
+  <si>
+    <t>M100</t>
+  </si>
+  <si>
+    <t>910-001601</t>
+  </si>
+  <si>
+    <t>910-005360</t>
+  </si>
+  <si>
+    <t>Roxo</t>
+  </si>
+  <si>
+    <t>U7Z00048</t>
+  </si>
+  <si>
+    <t>910-002959</t>
+  </si>
+  <si>
+    <t>IRON</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>Led</t>
+  </si>
+  <si>
+    <t>botões</t>
+  </si>
+  <si>
+    <t>Verde</t>
+  </si>
+  <si>
+    <t>KNUP</t>
+  </si>
+  <si>
+    <t>KP-V22</t>
+  </si>
+  <si>
+    <t>Premier</t>
+  </si>
+  <si>
+    <t>WM527</t>
+  </si>
+  <si>
+    <t>Ms304</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>fire,</t>
+  </si>
+  <si>
+    <t>oex,</t>
+  </si>
+  <si>
+    <t>mouses,</t>
+  </si>
+  <si>
+    <t>preto.</t>
+  </si>
+  <si>
+    <t>Optico</t>
+  </si>
+  <si>
+    <t>MO179</t>
+  </si>
+  <si>
+    <t>Bright</t>
+  </si>
+  <si>
+    <t>Suiça</t>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
+    <t>M585</t>
+  </si>
+  <si>
+    <t>910-005012</t>
+  </si>
+  <si>
+    <t>Basilisk</t>
+  </si>
+  <si>
+    <t>Quartz,</t>
+  </si>
+  <si>
+    <t>Razer,</t>
+  </si>
+  <si>
+    <t>Retrátil</t>
+  </si>
+  <si>
+    <t>Scroll</t>
+  </si>
+  <si>
+    <t>MO048</t>
+  </si>
+  <si>
+    <t>Preto/Cinza</t>
+  </si>
+  <si>
+    <t>4FD00025</t>
+  </si>
+  <si>
+    <t>X3000</t>
+  </si>
+  <si>
+    <t>optico</t>
+  </si>
+  <si>
+    <t>fio,</t>
+  </si>
+  <si>
+    <t>(Black/Mettalic</t>
+  </si>
+  <si>
+    <t>Grey)</t>
+  </si>
+  <si>
+    <t>MOUSE</t>
+  </si>
+  <si>
+    <t>OPTICO</t>
+  </si>
+  <si>
+    <t>SEM</t>
+  </si>
+  <si>
+    <t>FIO</t>
+  </si>
+  <si>
+    <t>PRETO</t>
+  </si>
+  <si>
+    <t>LOGITECH</t>
+  </si>
+  <si>
+    <t>Alienware</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>Gaming</t>
+  </si>
+  <si>
+    <t>AW558,</t>
+  </si>
+  <si>
+    <t>1200DPI</t>
+  </si>
+  <si>
+    <t>VERMELHO</t>
+  </si>
+  <si>
+    <t>Recarregável</t>
+  </si>
+  <si>
+    <t>Ergonômico</t>
+  </si>
+  <si>
+    <t>2.4g</t>
+  </si>
+  <si>
+    <t>Warrior</t>
+  </si>
+  <si>
+    <t>Laser</t>
+  </si>
+  <si>
+    <t>Botoes</t>
+  </si>
+  <si>
+    <t>MO191</t>
   </si>
 </sst>
 </file>
@@ -8647,1697 +9535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="2" max="2" width="64.5" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>580</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="D2" s="8">
-        <v>837</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="D3" s="8">
-        <v>339</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="D4" s="8">
-        <v>582</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="D5" s="8">
-        <v>326</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>592</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="D6" s="8">
-        <v>50</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="D7" s="8">
-        <v>46</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>598</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="D8" s="8">
-        <v>84</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="D9" s="8">
-        <v>110</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>602</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="D10" s="8">
-        <v>197</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>604</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="D11" s="8">
-        <v>104</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="D12" s="8">
-        <v>88</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>608</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="D13" s="8">
-        <v>28</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>610</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="D14" s="8">
-        <v>27</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>612</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="D15" s="8">
-        <v>28</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="D16" s="8">
-        <v>52</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>616</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="D17" s="8">
-        <v>11</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="D18" s="8">
-        <v>197</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="D19" s="8">
-        <v>3</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>624</v>
-      </c>
-      <c r="D20" s="8">
-        <v>2</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>626</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="D21" s="8">
-        <v>105</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>628</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="D22" s="8">
-        <v>46</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>630</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="D23" s="8">
-        <v>61</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="D24" s="8">
-        <v>13</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>634</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="D25" s="8">
-        <v>43</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="D26" s="8">
-        <v>46</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>638</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="D27" s="8">
-        <v>2</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>642</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="D29" s="8">
-        <v>8</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>644</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="D30" s="8">
-        <v>18</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>646</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>647</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>648</v>
-      </c>
-      <c r="D32" s="8">
-        <v>7</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="D33" s="8">
-        <v>16</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="D34" s="8">
-        <v>30</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="D35" s="8">
-        <v>7</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>657</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="D36" s="8">
-        <v>8</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>660</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>662</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="D38" s="8">
-        <v>2</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>664</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="D39" s="8">
-        <v>3</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>667</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="D40" s="8">
-        <v>11</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>669</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="D41" s="8">
-        <v>14</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>671</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="D42" s="8">
-        <v>5</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>673</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>674</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="D44" s="8">
-        <v>3</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>678</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="D46" s="8">
-        <v>19</v>
-      </c>
-      <c r="E46" s="8"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>679</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="D47" s="8">
-        <v>148</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>681</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="D48" s="8">
-        <v>50</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>683</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="D49" s="8">
-        <v>8</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>685</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="D50" s="8">
-        <v>18</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>687</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="D51" s="8">
-        <v>23</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>689</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="D52" s="8">
-        <v>17</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>691</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="D53" s="8">
-        <v>11</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>693</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="D54" s="8">
-        <v>22</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>695</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="D55" s="8">
-        <v>8</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>697</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="D56" s="8">
-        <v>14</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="D57" s="8">
-        <v>1</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>701</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="D58" s="8">
-        <v>17</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>703</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="D59" s="8">
-        <v>20</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>704</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="D60" s="8">
-        <v>4</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>706</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="D61" s="8">
-        <v>2</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="D62" s="8">
-        <v>1</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>710</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="D63" s="8">
-        <v>18</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>712</v>
-      </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>714</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="D65" s="8">
-        <v>922</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>716</v>
-      </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>717</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="D67" s="8">
-        <v>9</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>719</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="D68" s="8">
-        <v>8</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>720</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="D69" s="8">
-        <v>4</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>722</v>
-      </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>724</v>
-      </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>726</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="D72" s="8">
-        <v>11</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>728</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="D73" s="8">
-        <v>2</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>730</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="D74" s="8">
-        <v>8</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="D75" s="8">
-        <v>52</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>734</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="D76" s="8">
-        <v>2</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>736</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="D77" s="8">
-        <v>46</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>738</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="D78" s="8">
-        <v>197</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>740</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="D79" s="8">
-        <v>8</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>741</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="D80" s="8">
-        <v>20</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>742</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>743</v>
-      </c>
-      <c r="D81" s="8">
-        <v>8</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="D82" s="8">
-        <v>3</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>747</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="D83" s="8">
-        <v>5</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>749</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>750</v>
-      </c>
-      <c r="D84" s="8">
-        <v>2</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>752</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="D85" s="8">
-        <v>197</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>753</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="D86" s="8">
-        <v>1</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>754</v>
-      </c>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>755</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="D88" s="8">
-        <v>24</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>757</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="D89" s="8">
-        <v>4</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>759</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="D90" s="8">
-        <v>5</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>762</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="D91" s="8">
-        <v>3</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>764</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="D92" s="8">
-        <v>21</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>766</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="D93" s="8">
-        <v>2</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>767</v>
-      </c>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>769</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="D95" s="8">
-        <v>11</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>771</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="D96" s="8">
-        <v>8</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>773</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="D97" s="8">
-        <v>1</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>775</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="D98" s="8">
-        <v>9</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>777</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="D99" s="8">
-        <v>3</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>779</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="D100" s="8">
-        <v>1</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>781</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="D101" s="8">
-        <v>5</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>782</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E101"/>
-  <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C7" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12033,4 +11232,4152 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AG101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="58" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="8" customWidth="1"/>
+    <col min="10" max="18" width="6.125" customWidth="1"/>
+    <col min="19" max="19" width="7.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="D2" s="8">
+        <v>837</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I2" t="s">
+        <v>883</v>
+      </c>
+      <c r="J2" t="s">
+        <v>884</v>
+      </c>
+      <c r="K2">
+        <v>2.4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>885</v>
+      </c>
+      <c r="M2">
+        <v>1200</v>
+      </c>
+      <c r="N2" t="s">
+        <v>886</v>
+      </c>
+      <c r="O2" t="s">
+        <v>887</v>
+      </c>
+      <c r="P2" t="s">
+        <v>888</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>889</v>
+      </c>
+      <c r="R2" t="s">
+        <v>890</v>
+      </c>
+      <c r="S2" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D3" s="8">
+        <v>339</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I3" t="s">
+        <v>892</v>
+      </c>
+      <c r="J3" t="s">
+        <v>893</v>
+      </c>
+      <c r="K3" t="s">
+        <v>894</v>
+      </c>
+      <c r="L3" t="s">
+        <v>887</v>
+      </c>
+      <c r="M3" t="s">
+        <v>890</v>
+      </c>
+      <c r="N3" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="D4" s="8">
+        <v>582</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I4" t="s">
+        <v>896</v>
+      </c>
+      <c r="J4" t="s">
+        <v>897</v>
+      </c>
+      <c r="K4" t="s">
+        <v>898</v>
+      </c>
+      <c r="L4" t="s">
+        <v>899</v>
+      </c>
+      <c r="M4" t="s">
+        <v>900</v>
+      </c>
+      <c r="N4" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D5" s="8">
+        <v>326</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J5" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="D6" s="8">
+        <v>50</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I6" t="s">
+        <v>903</v>
+      </c>
+      <c r="J6" t="s">
+        <v>904</v>
+      </c>
+      <c r="K6" t="s">
+        <v>905</v>
+      </c>
+      <c r="L6" t="s">
+        <v>884</v>
+      </c>
+      <c r="M6" t="s">
+        <v>906</v>
+      </c>
+      <c r="N6" t="s">
+        <v>887</v>
+      </c>
+      <c r="O6" t="s">
+        <v>907</v>
+      </c>
+      <c r="P6" t="s">
+        <v>890</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="D7" s="8">
+        <v>46</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I7" t="s">
+        <v>889</v>
+      </c>
+      <c r="J7" t="s">
+        <v>909</v>
+      </c>
+      <c r="K7" t="s">
+        <v>884</v>
+      </c>
+      <c r="L7" t="s">
+        <v>910</v>
+      </c>
+      <c r="M7" t="s">
+        <v>887</v>
+      </c>
+      <c r="N7" t="s">
+        <v>906</v>
+      </c>
+      <c r="O7" t="s">
+        <v>890</v>
+      </c>
+      <c r="P7" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="D8" s="8">
+        <v>84</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="I8">
+        <v>200</v>
+      </c>
+      <c r="J8" t="s">
+        <v>882</v>
+      </c>
+      <c r="K8" t="s">
+        <v>883</v>
+      </c>
+      <c r="L8" t="s">
+        <v>913</v>
+      </c>
+      <c r="M8" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D9" s="8">
+        <v>110</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I9" t="s">
+        <v>892</v>
+      </c>
+      <c r="J9" t="s">
+        <v>914</v>
+      </c>
+      <c r="K9" t="s">
+        <v>888</v>
+      </c>
+      <c r="L9" t="s">
+        <v>887</v>
+      </c>
+      <c r="M9" t="s">
+        <v>890</v>
+      </c>
+      <c r="N9" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D10" s="8">
+        <v>197</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I10" t="s">
+        <v>909</v>
+      </c>
+      <c r="J10" t="s">
+        <v>884</v>
+      </c>
+      <c r="K10" t="s">
+        <v>916</v>
+      </c>
+      <c r="L10" t="s">
+        <v>906</v>
+      </c>
+      <c r="M10" t="s">
+        <v>887</v>
+      </c>
+      <c r="N10" t="s">
+        <v>907</v>
+      </c>
+      <c r="O10" t="s">
+        <v>890</v>
+      </c>
+      <c r="P10" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="D11" s="8">
+        <v>104</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I11" t="s">
+        <v>892</v>
+      </c>
+      <c r="J11" t="s">
+        <v>918</v>
+      </c>
+      <c r="K11" t="s">
+        <v>894</v>
+      </c>
+      <c r="L11" t="s">
+        <v>887</v>
+      </c>
+      <c r="M11" t="s">
+        <v>890</v>
+      </c>
+      <c r="N11" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D12" s="8">
+        <v>88</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I12" t="s">
+        <v>883</v>
+      </c>
+      <c r="J12" t="s">
+        <v>884</v>
+      </c>
+      <c r="K12" t="s">
+        <v>920</v>
+      </c>
+      <c r="L12" t="s">
+        <v>921</v>
+      </c>
+      <c r="M12" t="s">
+        <v>922</v>
+      </c>
+      <c r="N12" t="s">
+        <v>923</v>
+      </c>
+      <c r="O12" t="s">
+        <v>924</v>
+      </c>
+      <c r="P12" t="s">
+        <v>925</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>926</v>
+      </c>
+      <c r="R12" t="s">
+        <v>927</v>
+      </c>
+      <c r="S12" t="s">
+        <v>928</v>
+      </c>
+      <c r="T12" t="s">
+        <v>929</v>
+      </c>
+      <c r="U12" t="s">
+        <v>930</v>
+      </c>
+      <c r="V12" t="s">
+        <v>931</v>
+      </c>
+      <c r="W12" t="s">
+        <v>932</v>
+      </c>
+      <c r="X12" t="s">
+        <v>933</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>934</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>935</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>888</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>936</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>937</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>938</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>923</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>939</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D13" s="8">
+        <v>28</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I13" t="s">
+        <v>883</v>
+      </c>
+      <c r="J13" t="s">
+        <v>940</v>
+      </c>
+      <c r="K13" t="s">
+        <v>941</v>
+      </c>
+      <c r="L13" t="s">
+        <v>942</v>
+      </c>
+      <c r="M13" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="D14" s="8">
+        <v>27</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I14" t="s">
+        <v>892</v>
+      </c>
+      <c r="J14" t="s">
+        <v>918</v>
+      </c>
+      <c r="K14" t="s">
+        <v>894</v>
+      </c>
+      <c r="L14" t="s">
+        <v>943</v>
+      </c>
+      <c r="M14" t="s">
+        <v>890</v>
+      </c>
+      <c r="N14" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="D15" s="8">
+        <v>28</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I15" t="s">
+        <v>945</v>
+      </c>
+      <c r="J15" t="s">
+        <v>892</v>
+      </c>
+      <c r="K15" t="s">
+        <v>946</v>
+      </c>
+      <c r="L15" t="s">
+        <v>947</v>
+      </c>
+      <c r="M15" t="s">
+        <v>887</v>
+      </c>
+      <c r="N15" t="s">
+        <v>890</v>
+      </c>
+      <c r="O15" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D16" s="8">
+        <v>52</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I16" t="s">
+        <v>889</v>
+      </c>
+      <c r="J16" t="s">
+        <v>949</v>
+      </c>
+      <c r="K16" t="s">
+        <v>887</v>
+      </c>
+      <c r="L16" t="s">
+        <v>905</v>
+      </c>
+      <c r="M16" t="s">
+        <v>884</v>
+      </c>
+      <c r="N16" t="s">
+        <v>906</v>
+      </c>
+      <c r="O16" t="s">
+        <v>890</v>
+      </c>
+      <c r="P16" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="D17" s="8">
+        <v>11</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I17" t="s">
+        <v>909</v>
+      </c>
+      <c r="J17" t="s">
+        <v>884</v>
+      </c>
+      <c r="K17">
+        <v>2.4</v>
+      </c>
+      <c r="L17" t="s">
+        <v>885</v>
+      </c>
+      <c r="M17" t="s">
+        <v>906</v>
+      </c>
+      <c r="N17" t="s">
+        <v>951</v>
+      </c>
+      <c r="O17" t="s">
+        <v>889</v>
+      </c>
+      <c r="P17" t="s">
+        <v>887</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>890</v>
+      </c>
+      <c r="R17" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D18" s="8">
+        <v>197</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I18" t="s">
+        <v>909</v>
+      </c>
+      <c r="J18" t="s">
+        <v>884</v>
+      </c>
+      <c r="K18" t="s">
+        <v>916</v>
+      </c>
+      <c r="L18" t="s">
+        <v>906</v>
+      </c>
+      <c r="M18" t="s">
+        <v>943</v>
+      </c>
+      <c r="N18" t="s">
+        <v>907</v>
+      </c>
+      <c r="O18" t="s">
+        <v>890</v>
+      </c>
+      <c r="P18" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="D19" s="8">
+        <v>3</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I19" t="s">
+        <v>945</v>
+      </c>
+      <c r="J19" t="s">
+        <v>892</v>
+      </c>
+      <c r="K19" t="s">
+        <v>954</v>
+      </c>
+      <c r="L19" t="s">
+        <v>898</v>
+      </c>
+      <c r="M19" t="s">
+        <v>955</v>
+      </c>
+      <c r="N19" t="s">
+        <v>887</v>
+      </c>
+      <c r="O19" t="s">
+        <v>890</v>
+      </c>
+      <c r="P19" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="D20" s="8">
+        <v>2</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>957</v>
+      </c>
+      <c r="I20" t="s">
+        <v>882</v>
+      </c>
+      <c r="J20" t="s">
+        <v>889</v>
+      </c>
+      <c r="K20" t="s">
+        <v>887</v>
+      </c>
+      <c r="L20" t="s">
+        <v>890</v>
+      </c>
+      <c r="M20" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D21" s="8">
+        <v>105</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I21" t="s">
+        <v>892</v>
+      </c>
+      <c r="J21" t="s">
+        <v>959</v>
+      </c>
+      <c r="K21" t="s">
+        <v>920</v>
+      </c>
+      <c r="L21" t="s">
+        <v>922</v>
+      </c>
+      <c r="M21" t="s">
+        <v>894</v>
+      </c>
+      <c r="N21" t="s">
+        <v>887</v>
+      </c>
+      <c r="O21" t="s">
+        <v>890</v>
+      </c>
+      <c r="P21" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="D22" s="8">
+        <v>46</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I22" t="s">
+        <v>889</v>
+      </c>
+      <c r="J22" t="s">
+        <v>909</v>
+      </c>
+      <c r="K22" t="s">
+        <v>884</v>
+      </c>
+      <c r="L22" t="s">
+        <v>910</v>
+      </c>
+      <c r="M22" t="s">
+        <v>887</v>
+      </c>
+      <c r="N22" t="s">
+        <v>961</v>
+      </c>
+      <c r="O22" t="s">
+        <v>962</v>
+      </c>
+      <c r="P22" t="s">
+        <v>906</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>890</v>
+      </c>
+      <c r="R22" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="D23" s="8">
+        <v>61</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I23" t="s">
+        <v>909</v>
+      </c>
+      <c r="J23" t="s">
+        <v>884</v>
+      </c>
+      <c r="K23" t="s">
+        <v>916</v>
+      </c>
+      <c r="L23" t="s">
+        <v>906</v>
+      </c>
+      <c r="M23" t="s">
+        <v>962</v>
+      </c>
+      <c r="N23" t="s">
+        <v>964</v>
+      </c>
+      <c r="O23" t="s">
+        <v>907</v>
+      </c>
+      <c r="P23" t="s">
+        <v>890</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="D24" s="8">
+        <v>13</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I24" t="s">
+        <v>966</v>
+      </c>
+      <c r="J24" t="s">
+        <v>967</v>
+      </c>
+      <c r="K24" t="s">
+        <v>909</v>
+      </c>
+      <c r="L24" t="s">
+        <v>884</v>
+      </c>
+      <c r="M24" t="s">
+        <v>938</v>
+      </c>
+      <c r="N24" t="s">
+        <v>887</v>
+      </c>
+      <c r="O24" t="s">
+        <v>907</v>
+      </c>
+      <c r="P24" t="s">
+        <v>890</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D25" s="8">
+        <v>43</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I25" t="s">
+        <v>892</v>
+      </c>
+      <c r="J25" t="s">
+        <v>969</v>
+      </c>
+      <c r="K25" t="s">
+        <v>970</v>
+      </c>
+      <c r="L25" t="s">
+        <v>890</v>
+      </c>
+      <c r="M25" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="D26" s="8">
+        <v>46</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I26" t="s">
+        <v>889</v>
+      </c>
+      <c r="J26" t="s">
+        <v>909</v>
+      </c>
+      <c r="K26" t="s">
+        <v>884</v>
+      </c>
+      <c r="L26" t="s">
+        <v>910</v>
+      </c>
+      <c r="M26" t="s">
+        <v>887</v>
+      </c>
+      <c r="N26" t="s">
+        <v>961</v>
+      </c>
+      <c r="O26" t="s">
+        <v>972</v>
+      </c>
+      <c r="P26" t="s">
+        <v>906</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>890</v>
+      </c>
+      <c r="R26" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="D27" s="8">
+        <v>2</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I27" t="s">
+        <v>974</v>
+      </c>
+      <c r="J27">
+        <v>1000</v>
+      </c>
+      <c r="K27" t="s">
+        <v>975</v>
+      </c>
+      <c r="L27" t="s">
+        <v>976</v>
+      </c>
+      <c r="M27" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I28" t="s">
+        <v>945</v>
+      </c>
+      <c r="J28" t="s">
+        <v>978</v>
+      </c>
+      <c r="K28" t="s">
+        <v>979</v>
+      </c>
+      <c r="L28" t="s">
+        <v>980</v>
+      </c>
+      <c r="M28" t="s">
+        <v>981</v>
+      </c>
+      <c r="N28" t="s">
+        <v>982</v>
+      </c>
+      <c r="O28" t="s">
+        <v>926</v>
+      </c>
+      <c r="P28" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="D29" s="8">
+        <v>8</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I29" t="s">
+        <v>889</v>
+      </c>
+      <c r="J29" t="s">
+        <v>984</v>
+      </c>
+      <c r="K29" t="s">
+        <v>905</v>
+      </c>
+      <c r="L29" t="s">
+        <v>884</v>
+      </c>
+      <c r="M29" t="s">
+        <v>887</v>
+      </c>
+      <c r="N29" t="s">
+        <v>906</v>
+      </c>
+      <c r="O29" t="s">
+        <v>890</v>
+      </c>
+      <c r="P29" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="D30" s="8">
+        <v>18</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I30" t="s">
+        <v>892</v>
+      </c>
+      <c r="J30" t="s">
+        <v>893</v>
+      </c>
+      <c r="K30" t="s">
+        <v>894</v>
+      </c>
+      <c r="L30" t="s">
+        <v>943</v>
+      </c>
+      <c r="M30" t="s">
+        <v>890</v>
+      </c>
+      <c r="N30" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I31" t="s">
+        <v>889</v>
+      </c>
+      <c r="J31" t="s">
+        <v>984</v>
+      </c>
+      <c r="K31" t="s">
+        <v>887</v>
+      </c>
+      <c r="L31" t="s">
+        <v>987</v>
+      </c>
+      <c r="M31" t="s">
+        <v>890</v>
+      </c>
+      <c r="N31" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="D32" s="8">
+        <v>7</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I32" t="s">
+        <v>989</v>
+      </c>
+      <c r="J32" t="s">
+        <v>990</v>
+      </c>
+      <c r="K32" t="s">
+        <v>906</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32" t="s">
+        <v>991</v>
+      </c>
+      <c r="N32" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D33" s="8">
+        <v>16</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I33" t="s">
+        <v>892</v>
+      </c>
+      <c r="J33" t="s">
+        <v>993</v>
+      </c>
+      <c r="K33" t="s">
+        <v>938</v>
+      </c>
+      <c r="L33" t="s">
+        <v>887</v>
+      </c>
+      <c r="M33" t="s">
+        <v>890</v>
+      </c>
+      <c r="N33" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="D34" s="8">
+        <v>30</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I34" t="s">
+        <v>892</v>
+      </c>
+      <c r="J34" t="s">
+        <v>893</v>
+      </c>
+      <c r="K34" t="s">
+        <v>894</v>
+      </c>
+      <c r="L34" t="s">
+        <v>995</v>
+      </c>
+      <c r="M34" t="s">
+        <v>890</v>
+      </c>
+      <c r="N34" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="D35" s="8">
+        <v>7</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I35" t="s">
+        <v>909</v>
+      </c>
+      <c r="J35" t="s">
+        <v>884</v>
+      </c>
+      <c r="K35" t="s">
+        <v>938</v>
+      </c>
+      <c r="L35" t="s">
+        <v>887</v>
+      </c>
+      <c r="M35" t="s">
+        <v>889</v>
+      </c>
+      <c r="N35" t="s">
+        <v>890</v>
+      </c>
+      <c r="O35" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D36" s="8">
+        <v>8</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I36" t="s">
+        <v>998</v>
+      </c>
+      <c r="J36" t="s">
+        <v>976</v>
+      </c>
+      <c r="K36" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I37" t="s">
+        <v>888</v>
+      </c>
+      <c r="J37" t="s">
+        <v>999</v>
+      </c>
+      <c r="K37" t="s">
+        <v>1000</v>
+      </c>
+      <c r="L37" t="s">
+        <v>1001</v>
+      </c>
+      <c r="M37" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="D38" s="8">
+        <v>2</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I38" t="s">
+        <v>892</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K38" t="s">
+        <v>888</v>
+      </c>
+      <c r="L38" t="s">
+        <v>887</v>
+      </c>
+      <c r="M38" t="s">
+        <v>890</v>
+      </c>
+      <c r="N38" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D39" s="8">
+        <v>3</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>957</v>
+      </c>
+      <c r="I39" t="s">
+        <v>882</v>
+      </c>
+      <c r="J39" t="s">
+        <v>892</v>
+      </c>
+      <c r="K39" t="s">
+        <v>1004</v>
+      </c>
+      <c r="L39" t="s">
+        <v>894</v>
+      </c>
+      <c r="M39" t="s">
+        <v>1005</v>
+      </c>
+      <c r="N39" t="s">
+        <v>890</v>
+      </c>
+      <c r="O39" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D40" s="8">
+        <v>11</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I40" t="s">
+        <v>892</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K40" t="s">
+        <v>888</v>
+      </c>
+      <c r="L40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="M40" t="s">
+        <v>890</v>
+      </c>
+      <c r="N40" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D41" s="8">
+        <v>14</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I41" t="s">
+        <v>892</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K41" t="s">
+        <v>894</v>
+      </c>
+      <c r="L41" t="s">
+        <v>1011</v>
+      </c>
+      <c r="M41" t="s">
+        <v>890</v>
+      </c>
+      <c r="N41" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="D42" s="8">
+        <v>5</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J42" t="s">
+        <v>909</v>
+      </c>
+      <c r="K42" t="s">
+        <v>884</v>
+      </c>
+      <c r="L42" t="s">
+        <v>906</v>
+      </c>
+      <c r="M42" t="s">
+        <v>887</v>
+      </c>
+      <c r="N42" t="s">
+        <v>907</v>
+      </c>
+      <c r="O42" t="s">
+        <v>890</v>
+      </c>
+      <c r="P42" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I43" t="s">
+        <v>883</v>
+      </c>
+      <c r="J43" t="s">
+        <v>884</v>
+      </c>
+      <c r="K43" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L43" t="s">
+        <v>1016</v>
+      </c>
+      <c r="M43" t="s">
+        <v>1017</v>
+      </c>
+      <c r="N43" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="D44" s="8">
+        <v>3</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J44" t="s">
+        <v>931</v>
+      </c>
+      <c r="K44" t="s">
+        <v>1020</v>
+      </c>
+      <c r="L44">
+        <v>9</v>
+      </c>
+      <c r="M44" t="s">
+        <v>1021</v>
+      </c>
+      <c r="N44" t="s">
+        <v>1020</v>
+      </c>
+      <c r="O44" t="s">
+        <v>1022</v>
+      </c>
+      <c r="P44" t="s">
+        <v>929</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>1023</v>
+      </c>
+      <c r="R44" t="s">
+        <v>1024</v>
+      </c>
+      <c r="S44" t="s">
+        <v>1025</v>
+      </c>
+      <c r="T44" t="s">
+        <v>1026</v>
+      </c>
+      <c r="U44" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1028</v>
+      </c>
+      <c r="J45" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K45">
+        <v>4000</v>
+      </c>
+      <c r="L45" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M45" t="s">
+        <v>980</v>
+      </c>
+      <c r="N45" t="s">
+        <v>981</v>
+      </c>
+      <c r="O45" t="s">
+        <v>982</v>
+      </c>
+      <c r="P45" t="s">
+        <v>926</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D46" s="8">
+        <v>19</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="H46" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I46" t="s">
+        <v>892</v>
+      </c>
+      <c r="J46" t="s">
+        <v>920</v>
+      </c>
+      <c r="K46" t="s">
+        <v>921</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="M46" t="s">
+        <v>894</v>
+      </c>
+      <c r="N46" t="s">
+        <v>887</v>
+      </c>
+      <c r="O46" t="s">
+        <v>890</v>
+      </c>
+      <c r="P46" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="D47" s="8">
+        <v>148</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I47" t="s">
+        <v>945</v>
+      </c>
+      <c r="J47" t="s">
+        <v>892</v>
+      </c>
+      <c r="K47" t="s">
+        <v>1032</v>
+      </c>
+      <c r="L47" t="s">
+        <v>1033</v>
+      </c>
+      <c r="M47" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N47" t="s">
+        <v>890</v>
+      </c>
+      <c r="O47" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D48" s="8">
+        <v>50</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I48" t="s">
+        <v>892</v>
+      </c>
+      <c r="J48" t="s">
+        <v>920</v>
+      </c>
+      <c r="K48" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L48" t="s">
+        <v>890</v>
+      </c>
+      <c r="M48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D49" s="8">
+        <v>8</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I49" t="s">
+        <v>945</v>
+      </c>
+      <c r="J49" t="s">
+        <v>1038</v>
+      </c>
+      <c r="K49" t="s">
+        <v>897</v>
+      </c>
+      <c r="L49" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="D50" s="8">
+        <v>18</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I50" t="s">
+        <v>909</v>
+      </c>
+      <c r="J50" t="s">
+        <v>884</v>
+      </c>
+      <c r="K50">
+        <v>2.4</v>
+      </c>
+      <c r="L50" t="s">
+        <v>885</v>
+      </c>
+      <c r="M50" t="s">
+        <v>906</v>
+      </c>
+      <c r="N50" t="s">
+        <v>951</v>
+      </c>
+      <c r="O50" t="s">
+        <v>1039</v>
+      </c>
+      <c r="P50" t="s">
+        <v>889</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>887</v>
+      </c>
+      <c r="R50" t="s">
+        <v>890</v>
+      </c>
+      <c r="S50" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="D51" s="8">
+        <v>23</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I51" t="s">
+        <v>892</v>
+      </c>
+      <c r="J51" t="s">
+        <v>1041</v>
+      </c>
+      <c r="K51" t="s">
+        <v>894</v>
+      </c>
+      <c r="L51" t="s">
+        <v>887</v>
+      </c>
+      <c r="M51" t="s">
+        <v>890</v>
+      </c>
+      <c r="N51" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D52" s="8">
+        <v>17</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I52" t="s">
+        <v>883</v>
+      </c>
+      <c r="J52" t="s">
+        <v>884</v>
+      </c>
+      <c r="K52" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L52" t="s">
+        <v>1044</v>
+      </c>
+      <c r="M52" t="s">
+        <v>1017</v>
+      </c>
+      <c r="N52" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="A53" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D53" s="8">
+        <v>11</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I53" t="s">
+        <v>892</v>
+      </c>
+      <c r="J53" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K53" t="s">
+        <v>888</v>
+      </c>
+      <c r="L53" t="s">
+        <v>943</v>
+      </c>
+      <c r="M53" t="s">
+        <v>890</v>
+      </c>
+      <c r="N53" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
+      <c r="A54" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D54" s="8">
+        <v>22</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J54" t="s">
+        <v>1047</v>
+      </c>
+      <c r="K54" t="s">
+        <v>909</v>
+      </c>
+      <c r="L54" t="s">
+        <v>884</v>
+      </c>
+      <c r="M54" t="s">
+        <v>906</v>
+      </c>
+      <c r="N54" t="s">
+        <v>887</v>
+      </c>
+      <c r="O54" t="s">
+        <v>907</v>
+      </c>
+      <c r="P54" t="s">
+        <v>890</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="A55" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D55" s="8">
+        <v>8</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I55" t="s">
+        <v>945</v>
+      </c>
+      <c r="J55" t="s">
+        <v>892</v>
+      </c>
+      <c r="K55" t="s">
+        <v>1049</v>
+      </c>
+      <c r="L55" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M55" t="s">
+        <v>890</v>
+      </c>
+      <c r="N55" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="A56" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="D56" s="8">
+        <v>14</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I56" t="s">
+        <v>945</v>
+      </c>
+      <c r="J56" t="s">
+        <v>1052</v>
+      </c>
+      <c r="K56" t="s">
+        <v>1053</v>
+      </c>
+      <c r="L56" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M56" t="s">
+        <v>1055</v>
+      </c>
+      <c r="N56" t="s">
+        <v>1056</v>
+      </c>
+      <c r="O56">
+        <v>3360</v>
+      </c>
+      <c r="P56" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="A57" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D57" s="8">
+        <v>1</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1058</v>
+      </c>
+      <c r="J57" t="s">
+        <v>1059</v>
+      </c>
+      <c r="K57" t="s">
+        <v>1060</v>
+      </c>
+      <c r="L57" t="s">
+        <v>1001</v>
+      </c>
+      <c r="M57" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="D58" s="8">
+        <v>17</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I58" t="s">
+        <v>909</v>
+      </c>
+      <c r="J58" t="s">
+        <v>884</v>
+      </c>
+      <c r="K58" t="s">
+        <v>916</v>
+      </c>
+      <c r="L58" t="s">
+        <v>906</v>
+      </c>
+      <c r="M58" t="s">
+        <v>962</v>
+      </c>
+      <c r="N58" t="s">
+        <v>907</v>
+      </c>
+      <c r="O58" t="s">
+        <v>890</v>
+      </c>
+      <c r="P58" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="D59" s="8">
+        <v>20</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I59" t="s">
+        <v>892</v>
+      </c>
+      <c r="J59" t="s">
+        <v>893</v>
+      </c>
+      <c r="K59" t="s">
+        <v>894</v>
+      </c>
+      <c r="L59" t="s">
+        <v>1011</v>
+      </c>
+      <c r="M59" t="s">
+        <v>890</v>
+      </c>
+      <c r="N59" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D60" s="8">
+        <v>4</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J60" t="s">
+        <v>909</v>
+      </c>
+      <c r="K60" t="s">
+        <v>940</v>
+      </c>
+      <c r="L60" t="s">
+        <v>923</v>
+      </c>
+      <c r="M60" t="s">
+        <v>1064</v>
+      </c>
+      <c r="N60" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D61" s="8">
+        <v>2</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J61" t="s">
+        <v>1067</v>
+      </c>
+      <c r="K61" t="s">
+        <v>976</v>
+      </c>
+      <c r="L61" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D62" s="8">
+        <v>1</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I62" t="s">
+        <v>882</v>
+      </c>
+      <c r="J62">
+        <v>2</v>
+      </c>
+      <c r="K62" t="s">
+        <v>1069</v>
+      </c>
+      <c r="L62" t="s">
+        <v>926</v>
+      </c>
+      <c r="M62" t="s">
+        <v>1070</v>
+      </c>
+      <c r="N62" t="s">
+        <v>938</v>
+      </c>
+      <c r="O62" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="D63" s="8">
+        <v>18</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I63" t="s">
+        <v>892</v>
+      </c>
+      <c r="J63" t="s">
+        <v>918</v>
+      </c>
+      <c r="K63" t="s">
+        <v>894</v>
+      </c>
+      <c r="L63" t="s">
+        <v>1008</v>
+      </c>
+      <c r="M63" t="s">
+        <v>890</v>
+      </c>
+      <c r="N63" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I64" t="s">
+        <v>894</v>
+      </c>
+      <c r="J64" t="s">
+        <v>1073</v>
+      </c>
+      <c r="K64" t="s">
+        <v>1074</v>
+      </c>
+      <c r="L64" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29">
+      <c r="A65" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="D65" s="8">
+        <v>922</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I65" t="s">
+        <v>945</v>
+      </c>
+      <c r="J65" t="s">
+        <v>1052</v>
+      </c>
+      <c r="K65" t="s">
+        <v>1076</v>
+      </c>
+      <c r="L65" t="s">
+        <v>1077</v>
+      </c>
+      <c r="M65" t="s">
+        <v>1078</v>
+      </c>
+      <c r="N65" t="s">
+        <v>923</v>
+      </c>
+      <c r="O65" t="s">
+        <v>1079</v>
+      </c>
+      <c r="P65" t="s">
+        <v>1056</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>1080</v>
+      </c>
+      <c r="R65" t="s">
+        <v>1081</v>
+      </c>
+      <c r="S65" t="s">
+        <v>1082</v>
+      </c>
+      <c r="T65" t="s">
+        <v>926</v>
+      </c>
+      <c r="U65" t="s">
+        <v>1083</v>
+      </c>
+      <c r="V65" t="s">
+        <v>929</v>
+      </c>
+      <c r="W65" t="s">
+        <v>1084</v>
+      </c>
+      <c r="X65" t="s">
+        <v>931</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>1085</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29">
+      <c r="A66" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I66" t="s">
+        <v>1089</v>
+      </c>
+      <c r="J66" t="s">
+        <v>1090</v>
+      </c>
+      <c r="K66">
+        <v>1200</v>
+      </c>
+      <c r="L66" t="s">
+        <v>975</v>
+      </c>
+      <c r="M66" t="s">
+        <v>976</v>
+      </c>
+      <c r="N66" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29">
+      <c r="A67" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D67" s="8">
+        <v>9</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I67" t="s">
+        <v>909</v>
+      </c>
+      <c r="J67" t="s">
+        <v>884</v>
+      </c>
+      <c r="K67" t="s">
+        <v>889</v>
+      </c>
+      <c r="L67">
+        <v>2.4</v>
+      </c>
+      <c r="M67" t="s">
+        <v>885</v>
+      </c>
+      <c r="N67" t="s">
+        <v>967</v>
+      </c>
+      <c r="O67">
+        <v>6</v>
+      </c>
+      <c r="P67" t="s">
+        <v>1091</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>887</v>
+      </c>
+      <c r="R67" t="s">
+        <v>906</v>
+      </c>
+      <c r="S67" t="s">
+        <v>890</v>
+      </c>
+      <c r="T67" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29">
+      <c r="A68" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D68" s="8">
+        <v>8</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I68" t="s">
+        <v>892</v>
+      </c>
+      <c r="J68" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K68" t="s">
+        <v>888</v>
+      </c>
+      <c r="L68" t="s">
+        <v>1011</v>
+      </c>
+      <c r="M68" t="s">
+        <v>890</v>
+      </c>
+      <c r="N68" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29">
+      <c r="A69" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D69" s="8">
+        <v>4</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I69" t="s">
+        <v>883</v>
+      </c>
+      <c r="J69" t="s">
+        <v>884</v>
+      </c>
+      <c r="K69" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L69" t="s">
+        <v>1094</v>
+      </c>
+      <c r="M69" t="s">
+        <v>1095</v>
+      </c>
+      <c r="N69" t="s">
+        <v>1017</v>
+      </c>
+      <c r="O69" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29">
+      <c r="A70" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I70" t="s">
+        <v>892</v>
+      </c>
+      <c r="J70" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K70" t="s">
+        <v>888</v>
+      </c>
+      <c r="L70" t="s">
+        <v>972</v>
+      </c>
+      <c r="M70" t="s">
+        <v>890</v>
+      </c>
+      <c r="N70" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29">
+      <c r="A71" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I71" t="s">
+        <v>883</v>
+      </c>
+      <c r="J71" t="s">
+        <v>940</v>
+      </c>
+      <c r="K71" t="s">
+        <v>892</v>
+      </c>
+      <c r="L71" t="s">
+        <v>1004</v>
+      </c>
+      <c r="M71" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29">
+      <c r="A72" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D72" s="8">
+        <v>11</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I72" t="s">
+        <v>883</v>
+      </c>
+      <c r="J72" t="s">
+        <v>884</v>
+      </c>
+      <c r="K72" t="s">
+        <v>1097</v>
+      </c>
+      <c r="L72" t="s">
+        <v>1017</v>
+      </c>
+      <c r="M72" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29">
+      <c r="A73" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D73" s="8">
+        <v>2</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I73" t="s">
+        <v>945</v>
+      </c>
+      <c r="J73" t="s">
+        <v>892</v>
+      </c>
+      <c r="K73" t="s">
+        <v>1098</v>
+      </c>
+      <c r="L73" t="s">
+        <v>947</v>
+      </c>
+      <c r="M73" t="s">
+        <v>890</v>
+      </c>
+      <c r="N73" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29">
+      <c r="A74" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="D74" s="8">
+        <v>8</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I74" t="s">
+        <v>945</v>
+      </c>
+      <c r="J74" t="s">
+        <v>1100</v>
+      </c>
+      <c r="K74" t="s">
+        <v>1101</v>
+      </c>
+      <c r="L74" t="s">
+        <v>1102</v>
+      </c>
+      <c r="M74" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29">
+      <c r="A75" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D75" s="8">
+        <v>52</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I75" t="s">
+        <v>889</v>
+      </c>
+      <c r="J75" t="s">
+        <v>949</v>
+      </c>
+      <c r="K75" t="s">
+        <v>962</v>
+      </c>
+      <c r="L75" t="s">
+        <v>906</v>
+      </c>
+      <c r="M75" t="s">
+        <v>890</v>
+      </c>
+      <c r="N75" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29">
+      <c r="A76" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="D76" s="8">
+        <v>2</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I76" t="s">
+        <v>945</v>
+      </c>
+      <c r="J76" t="s">
+        <v>892</v>
+      </c>
+      <c r="K76" t="s">
+        <v>946</v>
+      </c>
+      <c r="L76" t="s">
+        <v>1033</v>
+      </c>
+      <c r="M76" t="s">
+        <v>890</v>
+      </c>
+      <c r="N76" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29">
+      <c r="A77" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="D77" s="8">
+        <v>46</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I77" t="s">
+        <v>909</v>
+      </c>
+      <c r="J77" t="s">
+        <v>884</v>
+      </c>
+      <c r="K77" t="s">
+        <v>907</v>
+      </c>
+      <c r="L77" t="s">
+        <v>916</v>
+      </c>
+      <c r="M77" t="s">
+        <v>1105</v>
+      </c>
+      <c r="N77" t="s">
+        <v>1106</v>
+      </c>
+      <c r="O77" t="s">
+        <v>887</v>
+      </c>
+      <c r="P77" t="s">
+        <v>890</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29">
+      <c r="A78" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D78" s="8">
+        <v>197</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I78" t="s">
+        <v>909</v>
+      </c>
+      <c r="J78" t="s">
+        <v>884</v>
+      </c>
+      <c r="K78" t="s">
+        <v>916</v>
+      </c>
+      <c r="L78" t="s">
+        <v>906</v>
+      </c>
+      <c r="M78" t="s">
+        <v>1011</v>
+      </c>
+      <c r="N78" t="s">
+        <v>1108</v>
+      </c>
+      <c r="O78" t="s">
+        <v>907</v>
+      </c>
+      <c r="P78" t="s">
+        <v>890</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29">
+      <c r="A79" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D79" s="8">
+        <v>8</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>957</v>
+      </c>
+      <c r="I79" t="s">
+        <v>882</v>
+      </c>
+      <c r="J79" t="s">
+        <v>892</v>
+      </c>
+      <c r="K79" t="s">
+        <v>1004</v>
+      </c>
+      <c r="L79" t="s">
+        <v>894</v>
+      </c>
+      <c r="M79" t="s">
+        <v>962</v>
+      </c>
+      <c r="N79" t="s">
+        <v>890</v>
+      </c>
+      <c r="O79" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29">
+      <c r="A80" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="D80" s="8">
+        <v>20</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I80" t="s">
+        <v>906</v>
+      </c>
+      <c r="J80" t="s">
+        <v>1111</v>
+      </c>
+      <c r="K80" t="s">
+        <v>1017</v>
+      </c>
+      <c r="L80" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="D81" s="8">
+        <v>8</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I81" t="s">
+        <v>909</v>
+      </c>
+      <c r="J81" t="s">
+        <v>884</v>
+      </c>
+      <c r="K81" t="s">
+        <v>907</v>
+      </c>
+      <c r="L81" t="s">
+        <v>1112</v>
+      </c>
+      <c r="M81" t="s">
+        <v>1113</v>
+      </c>
+      <c r="N81" t="s">
+        <v>1114</v>
+      </c>
+      <c r="O81" t="s">
+        <v>890</v>
+      </c>
+      <c r="P81" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="A82" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="D82" s="8">
+        <v>3</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I82" t="s">
+        <v>945</v>
+      </c>
+      <c r="J82" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K82" t="s">
+        <v>1117</v>
+      </c>
+      <c r="L82" t="s">
+        <v>1102</v>
+      </c>
+      <c r="M82" t="s">
+        <v>1001</v>
+      </c>
+      <c r="N82" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
+      <c r="A83" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D83" s="8">
+        <v>5</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I83" t="s">
+        <v>892</v>
+      </c>
+      <c r="J83" t="s">
+        <v>1118</v>
+      </c>
+      <c r="K83" t="s">
+        <v>888</v>
+      </c>
+      <c r="L83" t="s">
+        <v>887</v>
+      </c>
+      <c r="M83" t="s">
+        <v>890</v>
+      </c>
+      <c r="N83" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="A84" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="D84" s="8">
+        <v>2</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>957</v>
+      </c>
+      <c r="I84" t="s">
+        <v>882</v>
+      </c>
+      <c r="J84" t="s">
+        <v>892</v>
+      </c>
+      <c r="K84" t="s">
+        <v>1004</v>
+      </c>
+      <c r="L84" t="s">
+        <v>894</v>
+      </c>
+      <c r="M84" t="s">
+        <v>1011</v>
+      </c>
+      <c r="N84" t="s">
+        <v>890</v>
+      </c>
+      <c r="O84" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="A85" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D85" s="8">
+        <v>197</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I85" t="s">
+        <v>909</v>
+      </c>
+      <c r="J85" t="s">
+        <v>884</v>
+      </c>
+      <c r="K85" t="s">
+        <v>916</v>
+      </c>
+      <c r="L85" t="s">
+        <v>906</v>
+      </c>
+      <c r="M85" t="s">
+        <v>1121</v>
+      </c>
+      <c r="N85" t="s">
+        <v>907</v>
+      </c>
+      <c r="O85" t="s">
+        <v>890</v>
+      </c>
+      <c r="P85" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
+      <c r="A86" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D86" s="8">
+        <v>1</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I86" t="s">
+        <v>892</v>
+      </c>
+      <c r="J86" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K86" t="s">
+        <v>888</v>
+      </c>
+      <c r="L86" t="s">
+        <v>943</v>
+      </c>
+      <c r="M86" t="s">
+        <v>890</v>
+      </c>
+      <c r="N86" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="A87" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="H87" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I87" t="s">
+        <v>945</v>
+      </c>
+      <c r="J87" t="s">
+        <v>1124</v>
+      </c>
+      <c r="K87" t="s">
+        <v>1125</v>
+      </c>
+      <c r="L87" t="s">
+        <v>923</v>
+      </c>
+      <c r="M87" t="s">
+        <v>1126</v>
+      </c>
+      <c r="N87">
+        <v>6</v>
+      </c>
+      <c r="O87" t="s">
+        <v>1127</v>
+      </c>
+      <c r="P87" t="s">
+        <v>1128</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>1129</v>
+      </c>
+      <c r="R87" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="A88" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="D88" s="8">
+        <v>24</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I88" t="s">
+        <v>894</v>
+      </c>
+      <c r="J88" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K88" t="s">
+        <v>901</v>
+      </c>
+      <c r="L88" t="s">
+        <v>1132</v>
+      </c>
+      <c r="M88" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
+      <c r="A89" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D89" s="8">
+        <v>4</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>1133</v>
+      </c>
+      <c r="I89" t="s">
+        <v>1134</v>
+      </c>
+      <c r="J89" t="s">
+        <v>1135</v>
+      </c>
+      <c r="K89" t="s">
+        <v>1136</v>
+      </c>
+      <c r="L89" t="s">
+        <v>1137</v>
+      </c>
+      <c r="M89" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="A90" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="D90" s="8">
+        <v>5</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I90" t="s">
+        <v>889</v>
+      </c>
+      <c r="J90" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K90" t="s">
+        <v>984</v>
+      </c>
+      <c r="L90" t="s">
+        <v>887</v>
+      </c>
+      <c r="M90">
+        <v>1200</v>
+      </c>
+      <c r="N90" t="s">
+        <v>1030</v>
+      </c>
+      <c r="O90" t="s">
+        <v>887</v>
+      </c>
+      <c r="P90" t="s">
+        <v>906</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>890</v>
+      </c>
+      <c r="R90" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="A91" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D91" s="8">
+        <v>3</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I91" t="s">
+        <v>1141</v>
+      </c>
+      <c r="J91" t="s">
+        <v>1142</v>
+      </c>
+      <c r="K91" t="s">
+        <v>883</v>
+      </c>
+      <c r="L91" t="s">
+        <v>884</v>
+      </c>
+      <c r="M91" t="s">
+        <v>1143</v>
+      </c>
+      <c r="N91" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="A92" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D92" s="8">
+        <v>21</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I92" t="s">
+        <v>892</v>
+      </c>
+      <c r="J92" t="s">
+        <v>1144</v>
+      </c>
+      <c r="K92" t="s">
+        <v>938</v>
+      </c>
+      <c r="L92" t="s">
+        <v>887</v>
+      </c>
+      <c r="M92" t="s">
+        <v>890</v>
+      </c>
+      <c r="N92" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="A93" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D93" s="8">
+        <v>2</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>1146</v>
+      </c>
+      <c r="I93" t="s">
+        <v>1147</v>
+      </c>
+      <c r="J93" t="s">
+        <v>1148</v>
+      </c>
+      <c r="K93" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="A94" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>957</v>
+      </c>
+      <c r="I94" t="s">
+        <v>882</v>
+      </c>
+      <c r="J94" t="s">
+        <v>889</v>
+      </c>
+      <c r="K94" t="s">
+        <v>1149</v>
+      </c>
+      <c r="L94" t="s">
+        <v>906</v>
+      </c>
+      <c r="M94" t="s">
+        <v>905</v>
+      </c>
+      <c r="N94" t="s">
+        <v>1150</v>
+      </c>
+      <c r="O94" t="s">
+        <v>890</v>
+      </c>
+      <c r="P94" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
+      <c r="A95" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="D95" s="8">
+        <v>11</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>907</v>
+      </c>
+      <c r="I95" t="s">
+        <v>882</v>
+      </c>
+      <c r="J95" t="s">
+        <v>905</v>
+      </c>
+      <c r="K95" t="s">
+        <v>884</v>
+      </c>
+      <c r="L95" t="s">
+        <v>967</v>
+      </c>
+      <c r="M95" t="s">
+        <v>906</v>
+      </c>
+      <c r="N95" t="s">
+        <v>1152</v>
+      </c>
+      <c r="O95" t="s">
+        <v>890</v>
+      </c>
+      <c r="P95" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
+      <c r="A96" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D96" s="8">
+        <v>8</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="I96" t="s">
+        <v>1154</v>
+      </c>
+      <c r="J96" t="s">
+        <v>882</v>
+      </c>
+      <c r="K96" t="s">
+        <v>1155</v>
+      </c>
+      <c r="L96" t="s">
+        <v>909</v>
+      </c>
+      <c r="M96" t="s">
+        <v>1156</v>
+      </c>
+      <c r="N96" t="s">
+        <v>887</v>
+      </c>
+      <c r="O96" t="s">
+        <v>1157</v>
+      </c>
+      <c r="P96" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19">
+      <c r="A97" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D97" s="8">
+        <v>1</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I97" t="s">
+        <v>1160</v>
+      </c>
+      <c r="J97" t="s">
+        <v>1161</v>
+      </c>
+      <c r="K97" t="s">
+        <v>1162</v>
+      </c>
+      <c r="L97" t="s">
+        <v>1041</v>
+      </c>
+      <c r="M97" t="s">
+        <v>1163</v>
+      </c>
+      <c r="N97" t="s">
+        <v>890</v>
+      </c>
+      <c r="O97" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19">
+      <c r="A98" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D98" s="8">
+        <v>9</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I98" t="s">
+        <v>1165</v>
+      </c>
+      <c r="J98" t="s">
+        <v>1166</v>
+      </c>
+      <c r="K98" t="s">
+        <v>1167</v>
+      </c>
+      <c r="L98" t="s">
+        <v>890</v>
+      </c>
+      <c r="M98" t="s">
+        <v>1168</v>
+      </c>
+      <c r="N98" t="s">
+        <v>941</v>
+      </c>
+      <c r="O98" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19">
+      <c r="A99" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D99" s="8">
+        <v>3</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I99" t="s">
+        <v>1161</v>
+      </c>
+      <c r="J99" t="s">
+        <v>1162</v>
+      </c>
+      <c r="K99" t="s">
+        <v>1000</v>
+      </c>
+      <c r="L99" t="s">
+        <v>1043</v>
+      </c>
+      <c r="M99" t="s">
+        <v>1169</v>
+      </c>
+      <c r="N99" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19">
+      <c r="A100" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D100" s="8">
+        <v>1</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="I100" t="s">
+        <v>909</v>
+      </c>
+      <c r="J100" t="s">
+        <v>884</v>
+      </c>
+      <c r="K100" t="s">
+        <v>1171</v>
+      </c>
+      <c r="L100" t="s">
+        <v>1172</v>
+      </c>
+      <c r="M100" t="s">
+        <v>1036</v>
+      </c>
+      <c r="N100">
+        <v>1600</v>
+      </c>
+      <c r="O100" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P100" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19">
+      <c r="A101" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D101" s="8">
+        <v>5</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I101" t="s">
+        <v>945</v>
+      </c>
+      <c r="J101" t="s">
+        <v>882</v>
+      </c>
+      <c r="K101" t="s">
+        <v>1175</v>
+      </c>
+      <c r="L101">
+        <v>6</v>
+      </c>
+      <c r="M101" t="s">
+        <v>1176</v>
+      </c>
+      <c r="N101">
+        <v>3200</v>
+      </c>
+      <c r="O101" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P101" t="s">
+        <v>887</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>906</v>
+      </c>
+      <c r="R101" t="s">
+        <v>890</v>
+      </c>
+      <c r="S101" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>